--- a/resources/excel/resources.xlsx
+++ b/resources/excel/resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="20140" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="6420" yWindow="5900" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20190121 Learn Database" sheetId="1" r:id="rId1"/>
@@ -821,9 +821,6 @@
     <t>English; French; German; Mandarin;</t>
   </si>
   <si>
-    <t>Scatch by MIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Website dedicated to Scratch, the most popular visual programming language and online community targeting primarily children. Users can create online projects and develop them into almost anything by using a simple block-like interface. </t>
   </si>
   <si>
@@ -839,9 +836,6 @@
     <t xml:space="preserve">Available  online; available offline; </t>
   </si>
   <si>
-    <t>Scatch Jr by MIT</t>
-  </si>
-  <si>
     <t>Free application teaching young children how to program their own interactive stories and games.</t>
   </si>
   <si>
@@ -1008,6 +1002,52 @@
   </si>
   <si>
     <t>HTML;  HTML5; CSS; JavaScript</t>
+  </si>
+  <si>
+    <r>
+      <t>Sc</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>atch by MIT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sc</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>atch Jr by MIT</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1789,7 +1829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2030,6 +2070,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2363,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3063,7 +3106,7 @@
         <v>113</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>90</v>
@@ -3271,7 +3314,7 @@
         <v>146</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H18" s="40" t="s">
         <v>148</v>
@@ -3323,7 +3366,7 @@
         <v>146</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>90</v>
@@ -3375,7 +3418,7 @@
         <v>146</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>203</v>
@@ -3687,13 +3730,13 @@
         <v>216</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>90</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>101</v>
@@ -3739,7 +3782,7 @@
         <v>146</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>90</v>
@@ -3791,7 +3834,7 @@
         <v>253</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>90</v>
@@ -3980,20 +4023,20 @@
       <c r="AF31" s="36"/>
     </row>
     <row r="32" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="98" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="C32" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="D32" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="E32" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>135</v>
@@ -4008,7 +4051,7 @@
         <v>91</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M32" s="61"/>
       <c r="N32" s="36"/>
@@ -4032,20 +4075,20 @@
       <c r="AF32" s="36"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="D33" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="E33" s="35" t="s">
         <v>273</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>275</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>60</v>
@@ -4054,13 +4097,13 @@
         <v>61</v>
       </c>
       <c r="H33" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="35" t="s">
         <v>276</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>278</v>
       </c>
       <c r="M33" s="61"/>
       <c r="N33" s="36"/>
@@ -4085,19 +4128,19 @@
     </row>
     <row r="34" spans="1:32" ht="15.75" customHeight="1">
       <c r="A34" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="D34" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="E34" s="35" t="s">
         <v>281</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>283</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>135</v>
@@ -4137,19 +4180,19 @@
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1">
       <c r="A35" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="D35" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="E35" s="67" t="s">
         <v>286</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>288</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>60</v>
@@ -4189,31 +4232,31 @@
     </row>
     <row r="36" spans="1:32" ht="18" customHeight="1">
       <c r="A36" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="D36" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="E36" s="35" t="s">
         <v>291</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>293</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H36" s="35" t="s">
         <v>90</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>101</v>
@@ -4241,25 +4284,25 @@
     </row>
     <row r="37" spans="1:32" ht="15.75" customHeight="1">
       <c r="A37" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="D37" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="E37" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>299</v>
       </c>
       <c r="F37" s="35" t="s">
         <v>60</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>90</v>
@@ -4293,19 +4336,19 @@
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
       <c r="A38" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="D38" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="E38" s="35" t="s">
         <v>303</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>305</v>
       </c>
       <c r="F38" s="35" t="s">
         <v>135</v>
@@ -4317,7 +4360,7 @@
         <v>122</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>101</v>
@@ -4345,19 +4388,19 @@
     </row>
     <row r="39" spans="1:32" ht="16.5" customHeight="1">
       <c r="A39" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="D39" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>310</v>
-      </c>
       <c r="E39" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>135</v>
@@ -4372,7 +4415,7 @@
         <v>224</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M39" s="61"/>
       <c r="N39" s="36"/>
@@ -4397,19 +4440,19 @@
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1">
       <c r="A40" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="D40" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="E40" s="72" t="s">
         <v>314</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>316</v>
       </c>
       <c r="F40" s="72" t="s">
         <v>135</v>
@@ -4421,7 +4464,7 @@
         <v>90</v>
       </c>
       <c r="I40" s="72" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J40" s="72" t="s">
         <v>101</v>
@@ -4449,25 +4492,25 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="D41" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="C41" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>321</v>
-      </c>
       <c r="E41" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>135</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>90</v>

--- a/resources/excel/resources.xlsx
+++ b/resources/excel/resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="5900" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="-28800" yWindow="20140" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20190121 Learn Database" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20190121 Learn Database'!$A$1:$M$15</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="333">
   <si>
     <t>Learn</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Freeing content globally without restrictions</t>
   </si>
   <si>
-    <t>https://static1.squarespace.com/static/5980df7bebbd1ad69ea06814/t/59e6165780bd5e92ef8117d3/1536670159811/?format=1500w</t>
-  </si>
-  <si>
     <t xml:space="preserve">Game; Application; Website; </t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t xml:space="preserve">Other; </t>
   </si>
   <si>
-    <t>https://coderdojo.com/_nuxt/img/coderdojo.761bb66.svg</t>
-  </si>
-  <si>
     <t>Tutorial; Website; Presentation; Other;</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>http://kata.coderdojo.com/wiki/Kata</t>
   </si>
   <si>
-    <t>http://kata.coderdojo.com/skins/CoderDojoKata/images/logo.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tutorial; Online course; Video; Presentation; Toolkit; Graphic material; </t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>https://www.brainpop.com/games/runmarco/</t>
   </si>
   <si>
-    <t>http://teacherstechtoolbox.com/wp-content/uploads/2015/10/All-Can-Code-Run-Marco.png</t>
-  </si>
-  <si>
     <t>Website; Application; Online course;</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
     <t>https://share.catrob.at/pocketcode/</t>
   </si>
   <si>
-    <t>https://share.catrob.at/images/logo/logo_icon.png</t>
-  </si>
-  <si>
     <t>Application; Tutorial; Website; Online course; Video; Game; Graphic material; Presentation; Other;</t>
   </si>
   <si>
@@ -383,9 +368,6 @@
     <t>https://www.apple.com/uk/everyone-can-code/</t>
   </si>
   <si>
-    <t>https://image.freepik.com/free-icon/apple-logo_318-40184.jpg</t>
-  </si>
-  <si>
     <t>Website; Online course; Presentation; Toolkit; Guide;</t>
   </si>
   <si>
@@ -410,9 +392,6 @@
     <t>https://websitesetup.org/javascript-cheat-sheet/</t>
   </si>
   <si>
-    <t>no logo</t>
-  </si>
-  <si>
     <t>Tutorial; Online course; Presentation; Other; Guide;</t>
   </si>
   <si>
@@ -443,9 +422,6 @@
     <t>https://www.codecademy.com/</t>
   </si>
   <si>
-    <t>https://www.codecademy.com/webpack/44e01805165bfde4e6e4322c540abf81.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Online course; Video; Tutorial; Website; Presentation; Other; </t>
   </si>
   <si>
@@ -500,9 +476,6 @@
     <t>https://www.codeavengers.com/</t>
   </si>
   <si>
-    <t>https://www.codeavengers.com/image/codeavengers_thumb.jpg</t>
-  </si>
-  <si>
     <t>Tutorial; Website; Online course; Video; Application; Game; Graphic material; Presentation; Toolkit; Other;</t>
   </si>
   <si>
@@ -524,9 +497,6 @@
     <t>https://hackpledge.org/</t>
   </si>
   <si>
-    <t>https://res-2.cloudinary.com/crunchbase-production/image/upload/c_lpad,h_256,w_256,f_auto,q_auto:eco/v1419230398/xckajtsigkzycsd9mbeo.png</t>
-  </si>
-  <si>
     <t>Tutorial; Website; Online course; Video; Presentation; Other;</t>
   </si>
   <si>
@@ -539,9 +509,6 @@
     <t>http://blog.agupieware.com/2014/05/online-learning-bachelors-level.html</t>
   </si>
   <si>
-    <t>http://2.bp.blogspot.com/-WokOYF6BZmU/UfQIgFy_RXI/AAAAAAAAAA8/H4ynIQSBT18/s1600/aGupieWare-masthead01.png</t>
-  </si>
-  <si>
     <t>Python; Swift; Other;</t>
   </si>
   <si>
@@ -554,9 +521,6 @@
     <t>https://developers.google.com/blockly/</t>
   </si>
   <si>
-    <t>https://google-developers.appspot.com/blockly/showcase/blockly-games.png</t>
-  </si>
-  <si>
     <t>Website; Tutorial; Online course; Application; Game; Graphic material; Toolkit; Other;</t>
   </si>
   <si>
@@ -572,9 +536,6 @@
     <t>https://www.microsoft.com/en-us/makecode?rtc=1</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAXIAAABkCAMAAACsAksJAAAAz1BMVEVoIXpnIXpnIHloIXloIHlnIHpnIXloIHr////yUCJ/ugAApO//uQBrJn3Ir89yMIOmfLCLVZmHT5b28feyjru4l8Hf0OPBpcnt5e+PW53Yxt3byt+GP2FsP2HuTiR1fDDIQTx3hyhtRlx+KGsffcyDKmjCezCMRVxXNozMhSjEQD9SO5HPudWbbKeth7dwLYF5Ool8P4zv6PGhdazTvtjn2+mWZaPDp8qCR5F2JnA3XbAldMRcL4aAOWaoNlCjXUlpKHRqM2t6M2twXklrOWZntMbQAAAUc0lEQVR4nO1dZ2PrOnJFIUClUI2impPNbjZlk6jLlJW+Kf//N+2cGYDl2r7StfTu4wfStiyChyA4GMyZA1KUUtViVcr/Nd42iz96r9UdC4PczwXd1aZfF5SqNFEqwUua2iS1ZPeEtyQWG/iHS2RDKvvQD8oMesGEqhJbVxpBMFQiXZVwtUmsngpNgH0Z1DxeADGi3t5FEAqM1to7enVaeSrAn9ZGobxeqMxQr3lYQStBOvQjVg0DuNQ3QLETUGKUByjCUB+15SEQbWMED8wAop24bbqrIKVTQ4t2xtCvcWRDsrvT2moU48UQInHW0L7WKWO8T5UWEO9DJQbvaQO9t843QKid+gOLCiCl6RcghfLHQNReOpjn1QCiP08IakpXQcHt6Tehcms1dYPx1DX0Q71FA6AeKpb2UwabEuqvxCsGievF4SNjpAJxXLAAxXER8NjZOsOO8HVQHJRO1SAaAqbe1kUQD4MYTGx8Fy1om+xp4yYq81bs7Mn0pgkyNRog6SoGhSO1KlTPAIWmRFC1Y1dBREUGneAxaoFBDGIcokaaOOVS53iTo3c6QXiBhxtnpYy8zhEHO15XqW6CXEq4FCAaX6kDCLV6gNIEmx4CWUfBhwaxcxWIz4O2OdtVENs+BnCFMBJIVpggqZ0+vDOIGqY1IqxqJEO2BUrS76Z2FrnHoyCTEG9VILC46TgIzKgR2ZGEMTmROWFQ8nVHPuZMghBKJMqdYHxiUvI9/FjO2nwKkLM2JTogQmiCwKTU1QQySHcAoqowADT2I5d4CASSwisxUwTRKRAZ0X6+qyAKNuyvGudGpib6JApl56KTM0oSNQwEik7WGu4uJzyG3uQsxctI4G4SRAPkJJXx3lVDgvfkIWIfBAlQqxrE7M1DubOgiNFVxG8LzvZKq8TWBdVb/w4UyNW2d+AX/zjokzZZ1WGQTSiTxAhGJkA+xOkhORJFdKtSivk0OhxYNEUE8gROPd7SPp7KJQdyTBaE54ImSKUYKgyynkGp5y4CTVOt9iEQmu4SGlC6AlnW0aQzdFdB5PGchIOaNLMoFo3VKKK4SF5ACShIddSuVqcC0pWHmwaI9zMApUhLtQQqKCptjYqAr4OYXYIzCSi+6u6CUnJpzxkGojIxLU+fGJWQS7MwteBBQ5KEetBysUkwBJg7TeITEYTgCOo5klxJA4Qy4lICucQKCCyjAPKI/PohEF6p8QlaEkAJ9bflBnUVFOyOUQvxzt0hMzHIEFPb8HGB2pAeaos5AzJCkhgVJhCY41QLRPukCYMI5utkUje84OsgGV3csAjCGyOrHQWJ9iGjc9Kbtk+2SamMbKwoGSZ4aZZrr94vOpTrD7Y9BfTxPl0FYbYKubhlvwdlJRgXmIo1Ijopw2YlaYNIwuKSEMpVTBFJWHFC1Ej5CURDJuXhRFErSaG+LDo3gFLs9Qgo8Y5yXFZJEeRpwNLoJGbvKkhs06vPnwlKQFIpgjIuQUDgsfixIMgUMx1gWMuXKDC7oYQmEyYyCB9LMd2Q1gKIlQuV1yBiYs2KwHuiVAcQaNECBHFLrXoEhFljC4YyFYiOTEkurdmugrhL2EWRThLhoksM54ogKW2asVlXYK19IFMls+8xz5dY3gCF3XSVbnI8rut7CMRDzWrdOlyk7g6D4uKqqzFtI3+w4pWuA84nGEmu4xVL/Q2uuceDINsCKVVfQeoqyCNga8xc0KtxMu2L7Fx7k/LUgBHdI9eJKAqxcNKkAUlUUboCjtXR5RHFGyCLeITrHri05BMGWZ0wKEzTPAJygfGjggtjjX5SCpFdBfXqs1efvfqsfVz16rNXn83ij8GdBDlM3WoWQ47vB8B9ABBG6AZccNQuBnkOUS7FlU7mRmSVGB644cVp6UnJDysQyvEWwcdxToRurXMlvpTxdZDG9VHxnwjCKKVmh1tDOgmycjUHdy9wfJaJassXNEh3WHAYrm3UE+zxHaOMDZcMbLxQxEsEocYEt8BQdLcRVN3SZKtqvgiK10ZsDapa0VkQyWk6O5lKoR/vPKbZKUQDAeJEckYBFHEncSwsOaBaUGSCzbjECarjoA4xaxogJUyMKiwul9LimVsNF/PvIyD8I5XqaxD911QsV2c7CeKByyO4V5+9+rwX1ClheQ8Ink3+LYt2fDNdvKXTgQE93wwKv8XFu+rGT23imTu+VxD74CY8zhIrEC6fcmVMIwziceQ4lwKlPAaiFuMEJLFlEG8FrauuggJ9Ks53+Upz7CSmMPstLdi40Ta7E6UBVPHdO5B6D7JPAFWcXjWwgnYTxDOLpDDxm8g9uHyLKIK+5TuA/uuf28u//v/v2sv/YWQYZg1Kj7h6iFK+pOEt7r8DiVBdjkG+us4BVeYfAvF0aQI/qUB0ZHqhss6C1C31qX77Z63lN7//2z9vL3/Tq88fAt1Un3eYvFefPwa6pT6Te7y8V59PVZ+3Ta569flc9XmHl/9M9Wmv59348EU56EfZ48JSjbJfVn3eYfLb6jO7jEe1Pmvz4o+pz/3bgJbzF+Xg6DT5PkgdppPrXn0XNFpO7zzcp6C4fKI+7wossoxhjnUW1rzK1iigBhaDQbl/hvqUGgfn5rYwaouXfUvpZfPZO9Aon3xPMx6L5SA/5YPy8j1hecindZs+A7Ua/g3opvq8I7BE9ckmz6+V+pyyfaZalfTv+gz1uaWKXrfnicmO431b6S0Gl5bSuwyKd3IQJv9UM2a7/OV8HI0Ok2L8PWEJk/+y6vMeLw/Si00+KGKdZAXxcruAl6snqM/hYLBERdN5no/aSm8h4ytWQ+OheCcHyeSfakZb5OPsHmFJJv+F1ecdXh7Vp5icbCLqc3QSk5sk245Hz1CfluLKBiDy9nzUVnqL+WnVUHqT/KV4Jwdh8k80oxrnq/uEJby8M+qTTE6RcHAJ6pNWlzD589SnfRkMhgCxydtKb/G6eVWV0lOb4aZ4Jwdh8k804zHfxZrU94Ulmbw76pNsPN+QH8qanw8GMw4s+rrdrizXehgvNsNilalsu90esktRHAg62hbDYbEdibC019lw8zY+SIBYzYbDt/HRA7UlUnihHbfEx4PxdnttNHexXuVxXalrPlkXMkyOY7L+hK/iwuRYJlvm+P35bfO23XNRscwavSx7TqkdC2yX0hHDs0if2bTYDGeHCv6rqE+Y/ELGOLD6JPIsVzC5Q8Yyz4ik90XOsWawVSO8UmgerFS2kwg0WG49gbJC1go0b1XKSl7stbBxc9k1lN5inb28+aj0aG1dcF64yV9nu02+82JynOAqPwM0LctitzjNR+Rq+3KmvtGMo2G+me0WZbkSYblaErwoX64wuVH7YT7czeb55VdVnzB5RjbaYX9PGfSYTW4Nm9za/Sba6swm54xvlb3VNhxTTWzxHDSs1DavNm2yD0zeUHqLtb3kx6D0DvnKrpk+J69XNOY8AOeRyQm5OnGSeT3NMtr/MH/NeFRUNcnp7NfzK0ZdVoBzrV3lDN8vXog+qWAzp4OpbBaG1g+oT2VTlo3IWRTf/mITuWuUValNfvub9vKBFDK8pzEwudqRc2dU2SEf5Ac2eSImNwmMWY6n1/P8bEZs2GHxOjmj9DydYATkV+w3eDtSprZLzBFFxWQ6hq/vRuMxccN8TAt6aTceT1nOGehc8nKblegmiNaCenhdoE37DOeU2HlBIDb5ZDkmZWiy16EF45nrYJJQbx2qmvAsDKtmp0OCXVX2Rm03+3JhuSZKhaYE2p6OhpQmZUZv0MVcE9vNNNrENRlWzqYCKR3mXD2xp04c30sXPsYpH/z//d+3F/vHv24v/1NNJMLkGmaayMpQscmNF5PDmOUBPZ+N2MspqNBgL1FqKO1BTFpw+JgyyHCWeWGvJdAyM0Kf3uhAn82wuVhrdT4deGW0PCsbYnlYirUSKXQ97TiuTzkkA/1CwHO+bwRgxKDlLu56xPlsTzFqX9C8bB5q1+fcfieU6/a2qFA5CLHMJzFUPXlIWXmMyB/+pb3oP/5Ve/lfFRU+ezly5yFF5BKWZ5MrxyaH/4NL5QAw+RDvJogz8tHcV9j1SutvYs49OfXGx6qpOjY5Vtnkuj4jAi3W2GHG7d8RFwaTB1BWzAlEJr+Sj/NJzsqgwak3KNmKJpfDKT+puZh17HATD3fMp14fYXeP22Wvg2PDnO02cU1KVxmvbOQPg5OlKbI7Q3EfNyLiM9t8bRPPD/m7v2gvf/jHv2wv/4DPTntILvZyR2Y+HcyKHVvoUwIL+qIM8zeOvXzsKFOljsiPSFG1o/wmP+wRRJY78il3BEYDZK7cMeLlRns2udNoKD9GhkCLNY3b3XLvEATGqSOTo010pNVuOF/mcwKN8nG5k3uezLCchWVdKr2lwBJr4uz5nGe8TjahhFO7+SweDkkinWQR9i5wgqnznlVnu01ckxzOVKCb6lPdNnlTfZKXw7/HsC+Rm3i5ZZNnZK/XSljC5Bes0LbTSI6HqH5VE85fTruMJwwussdeyLLl5d+ozzW9Gy3HtHZeYpvQZ1Ysy+FsOyEvh/pcluFYalMO40LDYYrg0dSM42WtGYcbaxFnGurzMqj2Hl5DK+5Vn5gkTXE/OOZGiUstPoLC9rY8HXmHlxMwVUF9zmk/8ts5yHOUipcb8fKM8vRXzGyi6mByWmOTO/BLcobDE2kOc5k4YJOnAKU8KJLg5dawycFFVmaOifMXazwdqSDqtvMZCHMN9ZltXqaYULW7OYFG+Xb+upf0YDgUmuPJ1mR0mqlYEx2OUoETPjvDk8nk5SYpd/FwZHJDvpSlfKttBFU1NdvENX0Lgu0T/pQWrhWnCY8OZLfysBwK0vd4eZiAFC+niEkhmAO6xHIteblHqI4RjWP5Bb2MwHKVKgiW75HFHhcw+gGBZYdJc+XY+uLlAET1qWWWGT+LNR53dsi3irIPxV5OwFV+EFAxJxDF8kO52QPuihdpSIi9b2UWa8KnwRPa0YTb7RHL9csiHo5iuaJAd3Wc0kVQVVOzTVzTexBWEW4UAzHTq+TxQp7vWrnD5PwYLy2Cf47/w4GkI1pLYJGMRc9i/hHp8xLpc5cQ2xgMg7Wqem+wAn2+yKhEbxy0eLlmkw84g+BmO1Gf3IbFev+6wJkgliu9KwXkX+YihfSRbA5GQ/RWlS6nxHzn6480aHWg5D0V+1CSr5F2hsNtwZz75TicdQDVNTXaJIXfgPDcIKZPDvlyh5ACwcDDDejgtsl9iqwn5uW0D6xIybkLJg+BhdPH5RS9O50Y8XLqb9AliQ0aj+iSc3q9UGrLXj1hVbSzBJpg4Dgd6TNFPrmCssO8kOOjw+S0csy3wsYwuTG7pYBWoE/Dk7dk84yqGC1n1NQUeQJPE89IkkpN/KA2tSj3lFTgQitZW5tJvpKayDGmYTOg0JlsKNQEdLNNSh5qRqC0Bt1Wn/cElob6lJHIZEelLfUpuvJ1VqyD+pQrARfWlrMCO60zOxmUs/OYVk57xXOR82K2IYufrkmI5d7aKwqK4txWn8xYpMOljOlzSoGGQNP5Yl6pzyv8HKn4lnc4LJiI7SIvDqIZDxCxo3LDqWo2ZvXp35ZX5vHFhtXnYTncA5ydz1UTnqQ+7zB5W32CIsbMg0RbbfVZS3tRnxfWZ35Wqfo5ScBJeE9OZ0L2whnMBaQDk4OEslcR/G31yUpvmk9Y6Yn6JLleXLaL8jKeB/VJoCuZizbN8s35cn5bbvasGbPz8jTcncfF62lHIHWdl8X2Ml4vt/w0ptHmRKuz+ZBiOXKNSVnuLtvZvJyYZ6vPe2J56ESO5ei+w4kkDEJUS31qlZ1llmo+VVUsx4TRi1h1tif+uAbIhWPf8S2XmYErerVSn+rIu4wjG2OwhAuidiuF/nyR1ddyXhzVBNhsdmDQtOAZlcnbvFwXk+rWm9F5OC/LV0x0YtmfN2W5nh1CiM62tDq8ZPswe3jYrcv5MExEPlV93hVYTEN68a+rpFcIlbHW42W7OoRjV/qM5Mr2co3C+UArh6qB2eSynezf13S9XK7+ptK7Sw7+ZNAz1afnaVxUDN41Ir1EWIKboz5TgdR1rc++CLqp9LoIeqr6bF6xVDWR3HdZ86ug7yq9LoKeqj7xIRa+UQY8gqcxgDREWCoWZaLPWH3i2mpa6bMvgm4qvS6CYPunqc8YrjTHhTRIrxjkGrcZRhVW67Ovge5Qel0EPVF9hlrlkCpILxaWfKNLDQoqzD8OuqH0ugi6rT7/7d/by3/85z+1l/+u1CdfSMU+XGWUXvxAbqSgUZ/xQ2FR3NBnXwPdVHpdBN1Wn/3nPp995+3Na59ySzfToagqvOBJ+eFtmlTq06KmyCMMgvQSEO8q+kzJDbrMs+oh0E2l10XQbfUZZJFS9T9VkaXsFmMvNuvGQ6S43OCypuFkv4Y9CdRuzIdKr4ugW+rTfltVLSxVJQfvV5/Nt/5hUNeE5VPUp+c7SWFCdEhDWEIIEilgvVefT1Wf39DCx8KyV5/PVJ9Ck6AtvqG0FpZKHs7HN5T26vOp6rNBoBxXorD0jU9h9OrzqeozQvmTLVKbqqSW9vKFT736fKb6xHtWfuiDhrDEo9FFcPXqs1efVVknQb367NXnD4HajemCsLwL1KvPXn326rNXn7367NVnjFCNlV599uqzU6Beffbqs1efvfrs1WevPnv1+eOgXn326rNXn7367NVnrz579fnD6tOm0EMJjwYaufxQM6/4y/w8vgXUGnwpNuXepIsSfMUKS1Qjfwl/843H987zF4xRYgnOrUGIXNCtdCRPwUtzlxsBGTwu7TGQxjcm8aPqKxC+FNSSoMN3V3cUhF6Qx/A7LY9IDM9JRK6iVP3QRHRe/cWnIXm3yFTSKjGP4cU0Viib4XSmBlVO7B8FVXlue+XDFLk7oDSBY5OVQJCWNSRewLUJvs4zsaw+EyEuECW+pgyxB1/GImwQ1Sc/lxZf01mB8OiBVEC2BikGyWNsHwJZjErhowhS3B5qa9pVUK8+fzroT08y8mOwQ4G9AAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Website; Tutorial; Online course; Video; Game; Presentation; Toolkit; Other; </t>
   </si>
   <si>
@@ -593,9 +554,6 @@
     <t>https://www.catrobat.org/</t>
   </si>
   <si>
-    <t>https://www.catrobat.org/images/pocketcode.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Website; Application; Game; Graphic material; Other; Presentation; Toolkit; Tutorial; Video; </t>
   </si>
   <si>
@@ -611,9 +569,6 @@
     <t>https://www.42.us.org/</t>
   </si>
   <si>
-    <t>https://www.42.us.org/wp-content/themes/42/images/42_logo_black.svg</t>
-  </si>
-  <si>
     <t>Website; Video; Presentation; Graphic material; Other;</t>
   </si>
   <si>
@@ -629,9 +584,6 @@
     <t>https://www.accesslabs.org/?utm_campaign=Sponsored_Content&amp;utm_source=CourseReport&amp;utm_medium=BCP</t>
   </si>
   <si>
-    <t>http://nymediacenter.com/wp-content/uploads/2018/08/Access_Labs_logo_Color-01.png</t>
-  </si>
-  <si>
     <t>Website; Presentation; Other;</t>
   </si>
   <si>
@@ -647,9 +599,6 @@
     <t>http://lightbot.com/</t>
   </si>
   <si>
-    <t>http://lightbot.com/img/logo_small.png</t>
-  </si>
-  <si>
     <t>Game; Application; Tutorial; Website; Video; Application; Graphic material; Other;</t>
   </si>
   <si>
@@ -668,9 +617,6 @@
     <t>https://www.apple.com/swift/playgrounds/</t>
   </si>
   <si>
-    <t>https://humancoders-formations.s3.amazonaws.com/uploads/course/logo/79/formation-ios-avec-swift.png</t>
-  </si>
-  <si>
     <t>Game; Application; Website; Video; Graphic material; Presentation; Toolkit; Other;</t>
   </si>
   <si>
@@ -689,9 +635,6 @@
     <t>http://www.declick.net/</t>
   </si>
   <si>
-    <t>http://v2.declick.net/cms/storage/uploads/00000000008.png</t>
-  </si>
-  <si>
     <t>Website; Online course; Video; Application; Game; Graphic material; Toolkit; Other;</t>
   </si>
   <si>
@@ -710,9 +653,6 @@
     <t>https://pixees.fr/classcode-v2/</t>
   </si>
   <si>
-    <t>https://www.inria.fr/var/inria/storage/images/medias/actualites/generales/images-chapo/class-code-logo/1474032-4-fre-FR/class-code-logo_vignette.jpg</t>
-  </si>
-  <si>
     <t>Website; Tutorial; Online course; Video; Game; Presentation; Toolkit; Other; Application; Graphic material;</t>
   </si>
   <si>
@@ -725,9 +665,6 @@
     <t xml:space="preserve">http://www.drgeo.eu/ </t>
   </si>
   <si>
-    <t>http://www.drgeo.eu/_/rsrc/1472782761448/home/drgeo-title.png</t>
-  </si>
-  <si>
     <t>Website; Tutorial; Online course; Video; Game; Graphic material; Presentation; Toolkit; Other;</t>
   </si>
   <si>
@@ -752,9 +689,6 @@
     <t>https://www.edx.org/course</t>
   </si>
   <si>
-    <t>https://www.edx.org/sites/default/files/theme/edx-logo-header.png</t>
-  </si>
-  <si>
     <t>Online course; Website; Video; Presentation; Toolkit; Other;</t>
   </si>
   <si>
@@ -767,9 +701,6 @@
     <t>https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/</t>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/41VZYP49LiL._SY355_.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Online course; Website; Tutorial; Video; Presentation; Graphic material; Other; </t>
   </si>
   <si>
@@ -782,9 +713,6 @@
     <t>https://eu.udacity.com/courses/all#!/all</t>
   </si>
   <si>
-    <t>https://www.forallmystudents.co.za/wp-content/uploads/2017/12/AAEAAQAAAAAAAAimAAAAJGVmNDhiOWY1LTlhZWItNDU3Zi04MGJkLTgzNzRhZDYyOTY4Nw.png</t>
-  </si>
-  <si>
     <t>Coding; Programming; Computational thinking; Robotics; Other;</t>
   </si>
   <si>
@@ -797,9 +725,6 @@
     <t>https://open.sap.com/courses/acw1-3</t>
   </si>
   <si>
-    <t>https://open.sap.com/assets/logo_opensap-76d237a16e93caa8ccf4fc2113cf4abb4efd512fa74d140f966799446d0e4495.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">English; French; German; </t>
   </si>
   <si>
@@ -827,9 +752,6 @@
     <t>https://scratch.mit.edu/</t>
   </si>
   <si>
-    <t>https://makelearn.files.wordpress.com/2017/05/screen-shot-2017-05-27-at-4-50-16-pm.png?w=684&amp;h=600&amp;crop=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Video;  Tutorial; Game; Presentation; </t>
   </si>
   <si>
@@ -842,9 +764,6 @@
     <t>http://www.scratchjr.org/</t>
   </si>
   <si>
-    <t>http://www.scratchjr.org/images/scratchjrlogo.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Application; Video; Tutorial; Website; </t>
   </si>
   <si>
@@ -866,9 +785,6 @@
     <t>https://code.org/learn</t>
   </si>
   <si>
-    <t>https://code.org/images/logo.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Online course; Video; Tutorial; Website; </t>
   </si>
   <si>
@@ -881,9 +797,6 @@
     <t>https://codecombat.com/</t>
   </si>
   <si>
-    <t>https://codecombat.dexecure.net/images/pages/base/logo.png</t>
-  </si>
-  <si>
     <t>Game; Website; Application; Other;</t>
   </si>
   <si>
@@ -896,9 +809,6 @@
     <t>https://www.freecodecamp.org/</t>
   </si>
   <si>
-    <t>https://secure.meetupstatic.com/photos/event/4/c/b/b/600_468259643.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Website; Other; </t>
   </si>
   <si>
@@ -914,9 +824,6 @@
     <t>https://education.minecraft.net/</t>
   </si>
   <si>
-    <t>https://i.ytimg.com/vi/Cv6f-2Wlsxg/maxresdefault.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Game; Website; Presentation; Tutorial; </t>
   </si>
   <si>
@@ -932,9 +839,6 @@
     <t>https://www.kodugamelab.com/</t>
   </si>
   <si>
-    <t>https://www.kodugamelab.com/images/top_950.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tutorial; Game; Application; Website; </t>
   </si>
   <si>
@@ -950,9 +854,6 @@
     <t>https://www.agendadulibre.org/</t>
   </si>
   <si>
-    <t>https://www.agendadulibre.org/assets/baby_gnu_adl-463a81820aa2d4ffd8e7210dbce1a19ffcac67ef362aa7b092280c6f95c903fc.png</t>
-  </si>
-  <si>
     <t>Available online; workshop;</t>
   </si>
   <si>
@@ -965,9 +866,6 @@
     <t>http://www.progetiiger.ee/?q=</t>
   </si>
   <si>
-    <t>http://www.progetiiger.ee/img/pt-logo-kolmnurkne-taust.png</t>
-  </si>
-  <si>
     <t>Website; Tutorial; Presentation; Other;</t>
   </si>
   <si>
@@ -981,9 +879,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.alice.org/ </t>
-  </si>
-  <si>
-    <t>http://www.alice.org/wp-content/uploads/2017/02/alice-logo.png</t>
   </si>
   <si>
     <t>Visual Programming; Java;</t>
@@ -1049,12 +944,132 @@
       <t>atch Jr by MIT</t>
     </r>
   </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/PZXznHFoVdZ41jcv4mYj4wkuz7NDzlIbVIhPEyXu.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/JEVzAVFwE5gXOeHnBIWj3I7pZdR8IMpj4Dl4SKBh.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/ojRyIcMn89UI1ya78U53VFp9ZYLTC83Rvz3u2giJ.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/pYJ90BzIdWJiKQe20KVUGIdJGioDk9aCNtNxEHxw.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/AXXKyJ0euKgj8vMyJhtjht1aVsCJ90UKPE3HqISb.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/OxDUrIGiLQcpA8z94jWZScvQ6qmY3ZUFXlhSjgoQ.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/UaI3h3e0VzQnORRVv2ZH91TgZQX6Ze8TCtS8tTTb.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/wpsEptGukKghZRfEg6B4Icjp5C474oqmS2bfcgYr.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/XGVWMWxks0DFHsDSFjERWiahMwIJ5ts4FUfW0RXu.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/6ljOsu3qDkZXfOIM20KnPaVw2NgLgzPEgXGjZlYc.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/eJuWzPdVavpdJIvQgpA382Vc7CmoTSHGTvz6jS0p.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/SKfDQnzt8KFIK2oIL9EfPhmW3mlYQFsfoR6ZJwL3.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/Q1kKW7JIqChgKbQWakMdiiKQGg0ER8BEwEVy5pis.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/e2m4FWDcuKL97KL6YqzbVceZSV4HZ2myOKzVR3jQ.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/E9cnNfGnzzYYsEkyqajU6wqJSoEtHlsQxF7elCYx.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/xMtlyOhW02W0FfIygjPRQQ6FPpP4dPwOvgsDx53g.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/aDojf0vHOkEeAVNr16MYEjMOYKrgESJXDhuf8pcf.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/EUoG6gXWehDkZJgy3bukN7uasDBNlnxUA2vLjjOf.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/A7IwrO2yCoVWFv3Sde54zxZGTY2ikd2uPCD5xVTF.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/c2xy0UEEuqK8btEpMv6Z5AXfNK8NRscbD5K4uxEd.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/06qTj77pHofGdxvjynYKS5DJScgPUhDpSiWcxz7r.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/UpiqrUnRy4CMNdRul8JqHIFB5QyrgVH8YZoinLUL.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/kdn5kVibGIBYKYnGZ2T2m7xQSUCMt8nVYd9QD0Vg.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/hY0aQeaY9OQ3xHM1tQG8c4orggWKl3KjIkXgdV3I.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/G9tVxWlOJMrYYldxxZvqamAuPTNBDGzF4fZTxdf0.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/yeNHwnQsv2jmblJI9W5HTY40fs7qY4rtgl30Hvqt.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/mwaaoVQjv9j4SIkSrlWmKuzG9KFR0fEbvPAjolqz.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/GrCW1a7bwBePCRsmOwtiDdShJ9touxuNQD89btfj.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/pJhjAOStQQGX6ei4rHhJd55aEJ43Ckiwnuwubwqz.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/azca6PzDUr9OhnZdwmUOh98xZyySZFQ2EadVilRN.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/cMttQZFjF7LwoYKnKQCepuWeGEOmwajlDfCNqGl2.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/3TVDdt1CHD0hH2WWD8SWLOwOtK5B95iffsrkFES4.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/4pcWUOqqYNaqgWulEroXh5xCpoXbbA83lU107o2a.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/FnvkFxDvCI0rYlIcQApDMiv1g2J1BEX0iJD5Lc11.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/6LlsFKLOSs2UJKMMNmxuxskl5nl4j34m0tMqLIJR.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/SIif9kEfqzjRQhz4hdrYaUuCnkQIjHzKFR9DwOjh.jpeg</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/ovtGIvIar93JyqmhHl8JDfjkGBSy0SmhlX5EakR4.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/MV5pmUxwXCe1qTRnsS7ofEajHVZ2FyUBGLVV0eFP.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/HQamcU1i8rjSHUApjgFdDizgY0nqpOkQLycWluff.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/codeweek-resources/4gKqTFXwZ3tfgdVQsDWWvmNvlKKZKyk4WPPvPqgs.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1179,7 +1194,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1826,8 +1847,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1979,13 +2003,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1997,16 +2018,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2015,10 +2036,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2029,6 +2050,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2070,11 +2097,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2406,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2415,7 +2442,7 @@
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="4" max="4" width="99.5" customWidth="1"/>
     <col min="5" max="5" width="92.83203125" customWidth="1"/>
     <col min="6" max="6" width="94.83203125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
@@ -2473,25 +2500,25 @@
         <v>52</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" s="35"/>
       <c r="N2" s="36"/>
@@ -2516,34 +2543,34 @@
     </row>
     <row r="3" spans="1:32" ht="14.25" customHeight="1">
       <c r="A3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>81</v>
-      </c>
       <c r="D3" s="39" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="I3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="J3" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>92</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="36"/>
@@ -2568,34 +2595,34 @@
     </row>
     <row r="4" spans="1:32" ht="13.5" customHeight="1">
       <c r="A4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="D4" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="F4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="G4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="H4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="J4" s="35" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>101</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="36"/>
@@ -2620,34 +2647,34 @@
     </row>
     <row r="5" spans="1:32" ht="14.25" customHeight="1">
       <c r="A5" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="F5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>107</v>
-      </c>
       <c r="H5" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="36"/>
@@ -2672,34 +2699,34 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="G6" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="H6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>115</v>
       </c>
       <c r="M6" s="35"/>
       <c r="N6" s="36"/>
@@ -2724,34 +2751,34 @@
     </row>
     <row r="7" spans="1:32" ht="13.5" customHeight="1">
       <c r="A7" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="I7" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="J7" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>124</v>
       </c>
       <c r="M7" s="35"/>
       <c r="N7" s="36"/>
@@ -2776,34 +2803,34 @@
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M8" s="35"/>
       <c r="N8" s="36"/>
@@ -2828,34 +2855,34 @@
     </row>
     <row r="9" spans="1:32" ht="14.25" customHeight="1">
       <c r="A9" s="38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D9" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="G9" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>66</v>
-      </c>
       <c r="J9" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="36"/>
@@ -2880,34 +2907,34 @@
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1">
       <c r="A10" s="38" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="36"/>
@@ -2932,34 +2959,34 @@
     </row>
     <row r="11" spans="1:32" ht="12" customHeight="1">
       <c r="A11" s="38" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M11" s="35"/>
       <c r="N11" s="36"/>
@@ -2984,34 +3011,34 @@
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1">
       <c r="A12" s="38" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="36"/>
@@ -3036,34 +3063,34 @@
     </row>
     <row r="13" spans="1:32" ht="14.25" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="36"/>
@@ -3088,34 +3115,34 @@
     </row>
     <row r="14" spans="1:32" ht="14.25" customHeight="1">
       <c r="A14" s="38" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="36"/>
@@ -3140,34 +3167,34 @@
     </row>
     <row r="15" spans="1:32" ht="14.25" customHeight="1">
       <c r="A15" s="38" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M15" s="35"/>
       <c r="N15" s="36"/>
@@ -3192,34 +3219,34 @@
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="36"/>
@@ -3244,34 +3271,34 @@
     </row>
     <row r="17" spans="1:32" ht="16.5" customHeight="1">
       <c r="A17" s="55" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M17" s="35"/>
       <c r="N17" s="36"/>
@@ -3296,34 +3323,34 @@
     </row>
     <row r="18" spans="1:32" ht="56">
       <c r="A18" s="55" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>189</v>
+        <v>175</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>309</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M18" s="35"/>
       <c r="N18" s="36"/>
@@ -3348,34 +3375,34 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1">
       <c r="A19" s="38" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="36"/>
@@ -3400,34 +3427,34 @@
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="36"/>
@@ -3452,34 +3479,34 @@
     </row>
     <row r="21" spans="1:32" ht="16.5" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M21" s="35"/>
       <c r="N21" s="36"/>
@@ -3503,35 +3530,35 @@
       <c r="AF21" s="36"/>
     </row>
     <row r="22" spans="1:32" ht="18" customHeight="1">
-      <c r="A22" s="58" t="s">
-        <v>211</v>
+      <c r="A22" s="57" t="s">
+        <v>194</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>214</v>
+        <v>195</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>121</v>
+        <v>197</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>115</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="36"/>
@@ -3555,35 +3582,35 @@
       <c r="AF22" s="36"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A23" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>221</v>
+      <c r="A23" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>314</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>223</v>
+        <v>203</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>204</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M23" s="35"/>
       <c r="N23" s="36"/>
@@ -3607,35 +3634,35 @@
       <c r="AF23" s="36"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
-      <c r="A24" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>228</v>
+      <c r="A24" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>315</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>223</v>
+        <v>209</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>204</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="36"/>
@@ -3659,37 +3686,37 @@
       <c r="AF24" s="36"/>
     </row>
     <row r="25" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A25" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>234</v>
+      <c r="A25" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>65</v>
+        <v>214</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>64</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M25" s="67"/>
+        <v>216</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" s="66"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
@@ -3711,35 +3738,35 @@
       <c r="AF25" s="36"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>239</v>
+      <c r="A26" s="58" t="s">
+        <v>218</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>242</v>
+        <v>219</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>317</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="36"/>
@@ -3763,35 +3790,35 @@
       <c r="AF26" s="36"/>
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A27" s="59" t="s">
-        <v>244</v>
+      <c r="A27" s="58" t="s">
+        <v>222</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>247</v>
+        <v>223</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>318</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="36"/>
@@ -3815,35 +3842,35 @@
       <c r="AF27" s="36"/>
     </row>
     <row r="28" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A28" s="59" t="s">
-        <v>249</v>
+      <c r="A28" s="58" t="s">
+        <v>226</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>252</v>
+        <v>227</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>319</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="36"/>
@@ -3867,35 +3894,35 @@
       <c r="AF28" s="36"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
-      <c r="A29" s="69" t="s">
-        <v>254</v>
+      <c r="A29" s="68" t="s">
+        <v>230</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>257</v>
+        <v>231</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>320</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="36"/>
@@ -3919,35 +3946,35 @@
       <c r="AF29" s="36"/>
     </row>
     <row r="30" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A30" s="59" t="s">
-        <v>254</v>
+      <c r="A30" s="58" t="s">
+        <v>230</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>257</v>
+        <v>234</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>321</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="36"/>
@@ -3971,37 +3998,37 @@
       <c r="AF30" s="36"/>
     </row>
     <row r="31" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A31" s="59" t="s">
-        <v>254</v>
+      <c r="A31" s="58" t="s">
+        <v>230</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>322</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="M31" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="M31" s="60"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
@@ -4023,37 +4050,37 @@
       <c r="AF31" s="36"/>
     </row>
     <row r="32" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A32" s="98" t="s">
-        <v>326</v>
+      <c r="A32" s="73" t="s">
+        <v>291</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>267</v>
+        <v>240</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>323</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="M32" s="61"/>
+        <v>243</v>
+      </c>
+      <c r="M32" s="60"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
@@ -4075,37 +4102,37 @@
       <c r="AF32" s="36"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A33" s="98" t="s">
-        <v>327</v>
+      <c r="A33" s="73" t="s">
+        <v>292</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>324</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="F33" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>61</v>
-      </c>
       <c r="H33" s="35" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="M33" s="61"/>
+        <v>249</v>
+      </c>
+      <c r="M33" s="60"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
@@ -4127,37 +4154,37 @@
       <c r="AF33" s="36"/>
     </row>
     <row r="34" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A34" s="59" t="s">
-        <v>277</v>
+      <c r="A34" s="58" t="s">
+        <v>250</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>280</v>
+        <v>251</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>325</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>51</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="M34" s="60"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4179,37 +4206,37 @@
       <c r="AF34" s="36"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A35" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="67" t="s">
+      <c r="A35" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M35" s="68"/>
+      <c r="J35" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="67"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
@@ -4231,37 +4258,37 @@
       <c r="AF35" s="36"/>
     </row>
     <row r="36" spans="1:32" ht="18" customHeight="1">
-      <c r="A36" s="59" t="s">
-        <v>287</v>
+      <c r="A36" s="58" t="s">
+        <v>258</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="D36" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>325</v>
-      </c>
       <c r="H36" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="M36" s="60"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
@@ -4283,37 +4310,37 @@
       <c r="AF36" s="36"/>
     </row>
     <row r="37" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A37" s="59" t="s">
-        <v>293</v>
+      <c r="A37" s="58" t="s">
+        <v>263</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>296</v>
+        <v>264</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>328</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="M37" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="M37" s="60"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -4335,37 +4362,37 @@
       <c r="AF37" s="36"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
-      <c r="A38" s="59" t="s">
-        <v>299</v>
+      <c r="A38" s="58" t="s">
+        <v>268</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>302</v>
+        <v>269</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>329</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="M38" s="61"/>
+        <v>98</v>
+      </c>
+      <c r="M38" s="60"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
@@ -4387,37 +4414,37 @@
       <c r="AF38" s="36"/>
     </row>
     <row r="39" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A39" s="59" t="s">
-        <v>305</v>
+      <c r="A39" s="58" t="s">
+        <v>273</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>308</v>
+        <v>274</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>330</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="M39" s="61"/>
+        <v>276</v>
+      </c>
+      <c r="M39" s="60"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
@@ -4439,37 +4466,37 @@
       <c r="AF39" s="36"/>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1">
-      <c r="A40" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="F40" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="I40" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="J40" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="73"/>
+      <c r="A40" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="72"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
@@ -4491,35 +4518,35 @@
       <c r="AF40" s="36"/>
     </row>
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A41" s="59" t="s">
-        <v>316</v>
+      <c r="A41" s="58" t="s">
+        <v>282</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>319</v>
+        <v>283</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>332</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J41" s="35"/>
-      <c r="M41" s="61"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -15897,98 +15924,74 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="C4" r:id="rId8"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="A5" r:id="rId10"/>
-    <hyperlink ref="C5" r:id="rId11"/>
-    <hyperlink ref="D5" r:id="rId12"/>
-    <hyperlink ref="A6" r:id="rId13"/>
-    <hyperlink ref="C6" r:id="rId14"/>
-    <hyperlink ref="D6" r:id="rId15"/>
-    <hyperlink ref="A7" r:id="rId16"/>
-    <hyperlink ref="C7" r:id="rId17"/>
-    <hyperlink ref="D7" r:id="rId18"/>
-    <hyperlink ref="A8" r:id="rId19"/>
-    <hyperlink ref="C8" r:id="rId20"/>
-    <hyperlink ref="A9" r:id="rId21"/>
-    <hyperlink ref="C9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="C10" r:id="rId24"/>
-    <hyperlink ref="D10" r:id="rId25"/>
-    <hyperlink ref="A11" r:id="rId26"/>
-    <hyperlink ref="C11" r:id="rId27"/>
-    <hyperlink ref="A12" r:id="rId28"/>
-    <hyperlink ref="C12" r:id="rId29"/>
-    <hyperlink ref="A13" r:id="rId30"/>
-    <hyperlink ref="C13" r:id="rId31"/>
-    <hyperlink ref="D13" r:id="rId32"/>
-    <hyperlink ref="A14" r:id="rId33"/>
-    <hyperlink ref="C14" r:id="rId34"/>
-    <hyperlink ref="D14" r:id="rId35"/>
-    <hyperlink ref="A15" r:id="rId36"/>
-    <hyperlink ref="C15" r:id="rId37"/>
-    <hyperlink ref="D15" r:id="rId38"/>
-    <hyperlink ref="A16" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="D16" r:id="rId41"/>
-    <hyperlink ref="A17" r:id="rId42"/>
-    <hyperlink ref="C17" r:id="rId43"/>
-    <hyperlink ref="A18" r:id="rId44" location="pocketcode"/>
-    <hyperlink ref="C18" r:id="rId45"/>
-    <hyperlink ref="D18" r:id="rId46"/>
-    <hyperlink ref="A19" r:id="rId47"/>
-    <hyperlink ref="C19" r:id="rId48"/>
-    <hyperlink ref="D19" r:id="rId49"/>
-    <hyperlink ref="A20" r:id="rId50"/>
-    <hyperlink ref="C20" r:id="rId51"/>
-    <hyperlink ref="D20" r:id="rId52"/>
-    <hyperlink ref="A21" r:id="rId53"/>
-    <hyperlink ref="C21" r:id="rId54"/>
-    <hyperlink ref="D21" r:id="rId55"/>
-    <hyperlink ref="A22" r:id="rId56"/>
-    <hyperlink ref="C22" r:id="rId57"/>
-    <hyperlink ref="D22" r:id="rId58"/>
-    <hyperlink ref="A23" r:id="rId59"/>
-    <hyperlink ref="C23" r:id="rId60"/>
-    <hyperlink ref="D23" r:id="rId61"/>
-    <hyperlink ref="A24" r:id="rId62"/>
-    <hyperlink ref="C24" r:id="rId63"/>
-    <hyperlink ref="D24" r:id="rId64"/>
-    <hyperlink ref="A25" r:id="rId65"/>
-    <hyperlink ref="C25" r:id="rId66"/>
-    <hyperlink ref="D25" r:id="rId67"/>
-    <hyperlink ref="A26" r:id="rId68"/>
-    <hyperlink ref="C26" r:id="rId69"/>
-    <hyperlink ref="D26" r:id="rId70"/>
-    <hyperlink ref="A27" r:id="rId71"/>
-    <hyperlink ref="C27" r:id="rId72"/>
-    <hyperlink ref="D27" r:id="rId73"/>
-    <hyperlink ref="A28" r:id="rId74" location="!/all"/>
-    <hyperlink ref="C28" r:id="rId75" location="!/all"/>
-    <hyperlink ref="D28" r:id="rId76"/>
-    <hyperlink ref="A29" r:id="rId77"/>
-    <hyperlink ref="C29" r:id="rId78"/>
-    <hyperlink ref="D29" r:id="rId79"/>
-    <hyperlink ref="A30" r:id="rId80"/>
-    <hyperlink ref="C30" r:id="rId81"/>
-    <hyperlink ref="D30" r:id="rId82"/>
-    <hyperlink ref="C31" r:id="rId83"/>
-    <hyperlink ref="D31" r:id="rId84"/>
-    <hyperlink ref="C34" r:id="rId85"/>
-    <hyperlink ref="C35" r:id="rId86"/>
-    <hyperlink ref="C36" r:id="rId87"/>
-    <hyperlink ref="C37" r:id="rId88"/>
-    <hyperlink ref="C38" r:id="rId89"/>
-    <hyperlink ref="C39" r:id="rId90"/>
-    <hyperlink ref="C40" r:id="rId91"/>
-    <hyperlink ref="C41" r:id="rId92"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="A17" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33" location="pocketcode"/>
+    <hyperlink ref="C18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35"/>
+    <hyperlink ref="C19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37"/>
+    <hyperlink ref="C20" r:id="rId38"/>
+    <hyperlink ref="A21" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
+    <hyperlink ref="A22" r:id="rId41"/>
+    <hyperlink ref="C22" r:id="rId42"/>
+    <hyperlink ref="A23" r:id="rId43"/>
+    <hyperlink ref="C23" r:id="rId44"/>
+    <hyperlink ref="A24" r:id="rId45"/>
+    <hyperlink ref="C24" r:id="rId46"/>
+    <hyperlink ref="A25" r:id="rId47"/>
+    <hyperlink ref="C25" r:id="rId48"/>
+    <hyperlink ref="A26" r:id="rId49"/>
+    <hyperlink ref="C26" r:id="rId50"/>
+    <hyperlink ref="A27" r:id="rId51"/>
+    <hyperlink ref="C27" r:id="rId52"/>
+    <hyperlink ref="A28" r:id="rId53" location="!/all"/>
+    <hyperlink ref="C28" r:id="rId54" location="!/all"/>
+    <hyperlink ref="A29" r:id="rId55"/>
+    <hyperlink ref="C29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="C30" r:id="rId58"/>
+    <hyperlink ref="C31" r:id="rId59"/>
+    <hyperlink ref="C34" r:id="rId60"/>
+    <hyperlink ref="C35" r:id="rId61"/>
+    <hyperlink ref="C36" r:id="rId62"/>
+    <hyperlink ref="C37" r:id="rId63"/>
+    <hyperlink ref="C38" r:id="rId64"/>
+    <hyperlink ref="C39" r:id="rId65"/>
+    <hyperlink ref="C40" r:id="rId66"/>
+    <hyperlink ref="C41" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16014,19 +16017,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
     </row>
     <row r="3" spans="1:3" ht="14">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -16034,19 +16037,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="14">
-      <c r="A4" s="84"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14">
-      <c r="A5" s="84"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -16054,67 +16057,67 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="14">
-      <c r="A7" s="84"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14">
-      <c r="A10" s="84"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14">
-      <c r="A11" s="84"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14">
-      <c r="A13" s="84"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14">
-      <c r="A15" s="84"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14">
-      <c r="A16" s="86"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="84" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -16122,43 +16125,43 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="14">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14">
-      <c r="A20" s="84"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="84"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="84"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="84"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="84"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
@@ -16172,7 +16175,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -16180,69 +16183,69 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="75"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="32" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="76"/>
+      <c r="B32" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="32" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="76"/>
+      <c r="B33" s="32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="32" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="76"/>
+      <c r="B34" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="32" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="76"/>
+      <c r="B35" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="32" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="76"/>
+      <c r="B36" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="76"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1"/>
@@ -17244,22 +17247,22 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="91"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="2:4" ht="14">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="2:4" ht="14">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -17270,7 +17273,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="14">
-      <c r="B4" s="93"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
@@ -17279,7 +17282,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="14">
-      <c r="B5" s="93"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
@@ -17288,7 +17291,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="14">
-      <c r="B6" s="93"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
@@ -17297,7 +17300,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1">
-      <c r="B7" s="93"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
@@ -17306,7 +17309,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="14">
-      <c r="B8" s="93"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
@@ -17315,7 +17318,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" customHeight="1">
-      <c r="B9" s="94"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="24" t="s">
         <v>53</v>
       </c>
@@ -17324,46 +17327,46 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="14">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="2:4" ht="14">
-      <c r="B11" s="96"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="2:4" ht="14">
-      <c r="B12" s="96"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="2:4" ht="14">
+      <c r="B13" s="97"/>
+      <c r="C13" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="2:4" ht="14">
-      <c r="B13" s="96"/>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="2:4" ht="14">
+      <c r="B14" s="97"/>
+      <c r="C14" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="2:4" ht="14">
-      <c r="B14" s="96"/>
-      <c r="C14" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="2:4" ht="14">
-      <c r="B15" s="97"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>4</v>
@@ -17371,7 +17374,7 @@
     </row>
     <row r="16" spans="2:4" ht="14">
       <c r="B16" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>4</v>
@@ -17379,11 +17382,11 @@
       <c r="D16" s="34"/>
     </row>
     <row r="20" spans="2:4" ht="14">
-      <c r="B20" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
+      <c r="B20" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:4" ht="15.75" customHeight="1"/>

--- a/resources/excel/resources.xlsx
+++ b/resources/excel/resources.xlsx
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
